--- a/resultados_sorteios.xlsx
+++ b/resultados_sorteios.xlsx
@@ -12,6 +12,7 @@
     <sheet name="3524_2025-10-28_21h05" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="3525_2025-10-31_10h03" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="3526_2025-10-31_10h05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="3527_2025-11-01_14h23" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1110,4 +1111,115 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Jogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Números Jogados</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Acertos</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Números Acertados</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Data/Hora Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jair</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3, 4, 5, 7, 8, 9, 10, 15, 16, 18, 19, 20, 21, 23, 25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 6, 7, 9, 13, 14, 15, 16, 17, 19, 20, 23, 24</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3, 4, 7, 9, 15, 16, 19, 20, 23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>01/11/2025 14:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Janete</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 7, 8, 10, 12, 13, 15, 16, 17, 18, 19, 20, 24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 6, 7, 9, 13, 14, 15, 16, 17, 19, 20, 23, 24</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 7, 13, 15, 16, 17, 19, 20, 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>01/11/2025 14:24:22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/resultados_sorteios.xlsx
+++ b/resultados_sorteios.xlsx
@@ -13,6 +13,7 @@
     <sheet name="3525_2025-10-31_10h03" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="3526_2025-10-31_10h05" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="3527_2025-11-01_14h23" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="3528_2025-11-02_10h17" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1222,4 +1223,115 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Jogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Números Jogados</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Acertos</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Números Acertados</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Data/Hora Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jair</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3, 4, 5, 7, 8, 9, 10, 15, 16, 18, 19, 20, 21, 23, 25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 6, 7, 9, 10, 16, 18, 19, 20, 22, 23, 24, 25</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 9, 10, 16, 18, 19, 20, 23, 25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>02/11/2025 10:18:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Janete</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 7, 8, 10, 12, 13, 15, 16, 17, 18, 19, 20, 24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 6, 7, 9, 10, 16, 18, 19, 20, 22, 23, 24, 25</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3, 7, 10, 16, 18, 19, 20, 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>02/11/2025 10:18:29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>